--- a/PRM_Subject/BuffetRestaurantPlan/Plan.xlsx
+++ b/PRM_Subject/BuffetRestaurantPlan/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUY\Desktop\FinalProject\FinalProjectMobile\PRM_Subject\BuffetRestaurantPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D0BF74-46F4-43CE-A3E6-D5195C3C0F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483498E3-1F1C-4805-9E40-B4ED9712ECE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,9 +162,6 @@
     <t>PROJECT MEMBER</t>
   </si>
   <si>
-    <t>Ngô Hoàn Tâm Huy</t>
-  </si>
-  <si>
     <t>Ngô Nguyễn Hồng Hải Long</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>CE140548</t>
+  </si>
+  <si>
+    <t>Ngô Hoàn Tâm Huy (Leader)</t>
   </si>
 </sst>
 </file>
@@ -194,7 +194,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -361,19 +361,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,13 +388,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -679,14 +679,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L16" sqref="L15:L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="23.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="11" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" style="11" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="11" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="11" customWidth="1"/>
@@ -702,39 +702,39 @@
         <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="19" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="25.5">
